--- a/public/excel/assessoryTemplate.xlsx
+++ b/public/excel/assessoryTemplate.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13290" windowHeight="10860"/>
+    <workbookView windowWidth="14355" windowHeight="11775"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="货品" sheetId="1" r:id="rId1"/>
+    <sheet name="数据源" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="类型">数据源!$B$2:$B$5</definedName>
+    <definedName name="零售方式">数据源!$A$2:$A$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -27,16 +32,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>编号 *</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>零售方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+  </si>
+  <si>
+    <t>单价</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>库存</t>
@@ -52,41 +117,31 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>入网费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> *</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>类型</t>
-    </r>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>条码</t>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>零售方式</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>计件</t>
+  </si>
+  <si>
+    <t>配件</t>
+  </si>
+  <si>
+    <t>计重</t>
+  </si>
+  <si>
+    <t>物料</t>
+  </si>
+  <si>
+    <t>赠品</t>
+  </si>
+  <si>
+    <t>商品</t>
   </si>
 </sst>
 </file>
@@ -99,7 +154,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -116,13 +171,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -278,14 +333,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -739,14 +788,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -755,13 +810,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1081,103 +1135,104 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="25.6666666666667" style="1" customWidth="1"/>
-    <col min="2" max="5" width="10.8333333333333" style="2"/>
-    <col min="6" max="6" width="10.8333333333333" style="1"/>
-    <col min="7" max="16384" width="10.8333333333333" style="2"/>
+    <col min="1" max="1" width="25.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="3"/>
+    <col min="3" max="3" width="10.875" style="4"/>
+    <col min="4" max="5" width="10.875" style="3"/>
+    <col min="6" max="6" width="10.875" style="2"/>
+    <col min="7" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="5:5">
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="5:5">
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="5:5">
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="5:5">
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="5:5">
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="5:5">
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="5:5">
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="5:5">
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="5:5">
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="5:5">
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="5:5">
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="5:5">
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="7"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+      <formula1>零售方式</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>类型</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>